--- a/src/assets/template/excel/user_import_template.xlsx
+++ b/src/assets/template/excel/user_import_template.xlsx
@@ -22,52 +22,10 @@
     <t>部门编号</t>
   </si>
   <si>
-    <r>
-      <t>登录名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>登录名称</t>
   </si>
   <si>
-    <r>
-      <t>用户名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>用户名称</t>
   </si>
   <si>
     <t>用户邮箱</t>
@@ -104,7 +62,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +73,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,19 +227,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -585,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,34 +549,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,94 +585,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -738,11 +690,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,7 +1019,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1136,11 +1088,11 @@
       <formula1>1</formula1>
       <formula2>32</formula2>
     </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请输入11位有效手机号" sqref="F2:F1048576">
+      <formula1>11</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请选择对应值" sqref="G2:G1048576">
       <formula1>"男,女,未知"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请输入11位有效手机号" sqref="F2:F1048576">
-      <formula1>11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请选择对应值" sqref="H2:H1048576">
       <formula1>"正常,停用"</formula1>
